--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923B8387-50DB-4A06-B065-466F0F7439AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222911A2-83C4-446E-8B21-B41A2F528356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -457,14 +457,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ResultDao.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Result関連のデータアクセス用DAO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>User関連のデータ操作モデル</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -524,6 +516,54 @@
   </si>
   <si>
     <t>SignupServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubjectDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserScoreDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserScore関連のデータアクセス用DAO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SubjectBeans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Subject関連のデータ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UnitBeans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Unit関連のデータ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NanikaBeans.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nanika関連のデータ操作モデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -940,10 +980,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H59"/>
+  <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1006,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>50</v>
@@ -1034,7 +1074,7 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f t="shared" ref="B6:B42" si="0">ROW()-2</f>
+        <f t="shared" ref="B6:B46" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1139,7 +1179,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>63</v>
@@ -1158,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>64</v>
@@ -1221,10 +1261,10 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1"/>
     </row>
@@ -1248,38 +1288,47 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>85</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -1294,10 +1343,10 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G21" s="1"/>
     </row>
@@ -1313,15 +1362,16 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1331,19 +1381,30 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>71</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1352,16 +1413,16 @@
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="G25" s="1"/>
     </row>
@@ -1371,55 +1432,43 @@
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1433,11 +1482,11 @@
       <c r="D29" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>25</v>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="G29" s="1"/>
     </row>
@@ -1452,11 +1501,11 @@
       <c r="D30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>28</v>
+      <c r="E30" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G30" s="1"/>
     </row>
@@ -1472,10 +1521,10 @@
         <v>12</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G31" s="1"/>
     </row>
@@ -1491,10 +1540,10 @@
         <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G32" s="1"/>
     </row>
@@ -1510,10 +1559,10 @@
         <v>12</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="G33" s="1"/>
     </row>
@@ -1529,19 +1578,30 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1550,16 +1610,16 @@
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>42</v>
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="G36" s="1"/>
     </row>
@@ -1569,16 +1629,16 @@
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="G37" s="1"/>
     </row>
@@ -1588,36 +1648,25 @@
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1631,11 +1680,11 @@
       <c r="D40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>48</v>
+      <c r="E40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1650,11 +1699,11 @@
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>45</v>
+      <c r="E41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1670,63 +1719,103 @@
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F46" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G42" s="1"/>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-    </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
@@ -1743,8 +1832,8 @@
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
@@ -1752,8 +1841,8 @@
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
@@ -1761,15 +1850,51 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="E27" r:id="rId1" xr:uid="{797F1EA4-CE46-4A81-A04A-59D94C042DB8}"/>
+    <hyperlink ref="E31" r:id="rId1" xr:uid="{797F1EA4-CE46-4A81-A04A-59D94C042DB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1777,6 +1902,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -1947,15 +2081,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1963,6 +2088,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1977,14 +2110,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222911A2-83C4-446E-8B21-B41A2F528356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE9615-D0D1-4584-9820-404BCC065BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="114">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -140,13 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>HOME画面jsp</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>signup.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -564,6 +557,141 @@
   </si>
   <si>
     <t>Nanika関連のデータ操作モデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5グェン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1宮本</t>
+    <rPh sb="1" eb="3">
+      <t>ミヤモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2佐々木</t>
+    <rPh sb="1" eb="4">
+      <t>ササキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3村岡</t>
+    <rPh sb="1" eb="3">
+      <t>ムラオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4齋藤</t>
+    <rPh sb="1" eb="3">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4斎藤</t>
+    <rPh sb="1" eb="3">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2村岡</t>
+    <rPh sb="1" eb="3">
+      <t>ムラオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3斎藤</t>
+    <rPh sb="1" eb="3">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1佐々木</t>
+    <rPh sb="1" eb="4">
+      <t>ササキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4グェン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5宮本</t>
+    <rPh sb="1" eb="3">
+      <t>ミヤモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5村岡</t>
+    <rPh sb="1" eb="3">
+      <t>ムラオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2グェン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3宮本</t>
+    <rPh sb="1" eb="3">
+      <t>ミヤモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>斎藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村岡</t>
+    <rPh sb="0" eb="2">
+      <t>ムラオカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>佐々木</t>
+    <rPh sb="0" eb="3">
+      <t>ササキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮本</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グェン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -982,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1032,7 +1160,9 @@
       <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1046,12 +1176,14 @@
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1"/>
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1065,12 +1197,14 @@
         <v>5</v>
       </c>
       <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1084,12 +1218,14 @@
         <v>5</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1103,12 +1239,14 @@
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1122,12 +1260,14 @@
         <v>5</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1141,12 +1281,14 @@
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1160,12 +1302,14 @@
         <v>5</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1179,12 +1323,14 @@
         <v>5</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1198,12 +1344,14 @@
         <v>5</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
@@ -1225,12 +1373,14 @@
         <v>9</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15" s="1">
@@ -1243,12 +1393,14 @@
         <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
@@ -1261,12 +1413,14 @@
         <v>9</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1280,12 +1434,14 @@
         <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1298,12 +1454,14 @@
         <v>9</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1316,12 +1474,14 @@
         <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
@@ -1343,12 +1503,14 @@
         <v>10</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1362,12 +1524,14 @@
         <v>10</v>
       </c>
       <c r="E22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1381,12 +1545,14 @@
         <v>10</v>
       </c>
       <c r="E23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1400,12 +1566,14 @@
         <v>10</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G24" s="1"/>
+        <v>70</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1419,12 +1587,14 @@
         <v>10</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G25" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1438,12 +1608,14 @@
         <v>10</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G26" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1456,12 +1628,14 @@
         <v>10</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="1"/>
+        <v>73</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
@@ -1488,7 +1662,9 @@
       <c r="F29" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1502,12 +1678,14 @@
         <v>12</v>
       </c>
       <c r="E30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1524,9 +1702,11 @@
         <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1540,12 +1720,14 @@
         <v>12</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1559,12 +1741,14 @@
         <v>12</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1578,12 +1762,14 @@
         <v>12</v>
       </c>
       <c r="E34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1597,12 +1783,14 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -1616,12 +1804,14 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G36" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -1635,12 +1825,14 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G37" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -1654,12 +1846,14 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
@@ -1684,7 +1878,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G40" s="1"/>
     </row>
@@ -1703,7 +1897,7 @@
         <v>16</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G41" s="1"/>
     </row>
@@ -1719,10 +1913,10 @@
         <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G42" s="1"/>
     </row>
@@ -1738,10 +1932,10 @@
         <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -1757,10 +1951,10 @@
         <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -1776,10 +1970,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -1795,10 +1989,10 @@
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -1902,12 +2096,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2082,15 +2273,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2115,18 +2318,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ADE9615-D0D1-4584-9820-404BCC065BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5033B2BB-DD56-4165-8613-D19A0A3ED40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="225" yWindow="840" windowWidth="16995" windowHeight="10545" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -606,13 +606,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3斎藤</t>
-    <rPh sb="1" eb="3">
-      <t>サイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1佐々木</t>
     <rPh sb="1" eb="4">
       <t>ササキ</t>
@@ -649,13 +642,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>斎藤</t>
-    <rPh sb="0" eb="2">
-      <t>サイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>村岡</t>
     <rPh sb="0" eb="2">
       <t>ムラオカ</t>
@@ -691,6 +677,27 @@
     <t>ホーム画面jsp</t>
     <rPh sb="3" eb="5">
       <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3齊藤</t>
+    <rPh sb="1" eb="3">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4齊藤</t>
+    <rPh sb="1" eb="3">
+      <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>齊藤</t>
+    <rPh sb="0" eb="2">
+      <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1110,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F38"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1161,7 +1168,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1224,7 +1231,7 @@
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1245,7 +1252,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1266,7 +1273,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1287,7 +1294,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1308,7 +1315,7 @@
         <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1329,7 +1336,7 @@
         <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1350,7 +1357,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1379,7 +1386,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1399,7 +1406,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1419,7 +1426,7 @@
         <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1440,7 +1447,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1460,7 +1467,7 @@
         <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1480,7 +1487,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1509,7 +1516,7 @@
         <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1530,7 +1537,7 @@
         <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1551,7 +1558,7 @@
         <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1572,7 +1579,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1593,7 +1600,7 @@
         <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1614,7 +1621,7 @@
         <v>72</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1634,7 +1641,7 @@
         <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1702,7 +1709,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>95</v>
@@ -2096,9 +2103,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2273,27 +2283,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2318,9 +2316,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5033B2BB-DD56-4165-8613-D19A0A3ED40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C3D841-8A50-4BAA-B661-37C8C085C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="225" yWindow="840" windowWidth="16995" windowHeight="10545" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="113">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -581,20 +581,6 @@
     <t>3村岡</t>
     <rPh sb="1" eb="3">
       <t>ムラオカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4齋藤</t>
-    <rPh sb="1" eb="3">
-      <t>サイトウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4斎藤</t>
-    <rPh sb="1" eb="3">
-      <t>サイトウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1117,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1168,7 +1154,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
@@ -1189,7 +1175,7 @@
         <v>49</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
@@ -1210,7 +1196,7 @@
         <v>51</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
@@ -1231,7 +1217,7 @@
         <v>53</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
@@ -1252,7 +1238,7 @@
         <v>55</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
@@ -1273,7 +1259,7 @@
         <v>57</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
@@ -1294,7 +1280,7 @@
         <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
@@ -1315,7 +1301,7 @@
         <v>61</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
@@ -1336,7 +1322,7 @@
         <v>62</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
@@ -1357,7 +1343,7 @@
         <v>63</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
@@ -1386,7 +1372,7 @@
         <v>67</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.4">
@@ -1406,7 +1392,7 @@
         <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.4">
@@ -1426,7 +1412,7 @@
         <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
@@ -1447,7 +1433,7 @@
         <v>65</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -1467,7 +1453,7 @@
         <v>82</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -1487,7 +1473,7 @@
         <v>84</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -1516,7 +1502,7 @@
         <v>92</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -1537,7 +1523,7 @@
         <v>88</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -1558,7 +1544,7 @@
         <v>90</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -1579,7 +1565,7 @@
         <v>70</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -1600,7 +1586,7 @@
         <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -1621,7 +1607,7 @@
         <v>72</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -1641,7 +1627,7 @@
         <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1709,7 +1695,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>95</v>
@@ -1754,7 +1740,7 @@
         <v>26</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1817,7 +1803,7 @@
         <v>31</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">

--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1C3D841-8A50-4BAA-B661-37C8C085C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FA26A-CAC0-4230-A205-F7FD349712C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="840" windowWidth="16995" windowHeight="10545" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="2136" yWindow="1356" windowWidth="17280" windowHeight="10644" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="115">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -684,6 +684,17 @@
     <t>齊藤</t>
     <rPh sb="0" eb="2">
       <t>サイトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>着手</t>
+    <rPh sb="0" eb="2">
+      <t>チャクシュ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1101,22 +1112,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:H63"/>
+  <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.8984375" customWidth="1"/>
+    <col min="7" max="7" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1136,7 +1150,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1157,7 +1174,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B4" s="1">
         <f>ROW()-2</f>
         <v>2</v>
@@ -1178,7 +1195,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B5" s="1">
         <f>ROW()-2</f>
         <v>3</v>
@@ -1199,7 +1216,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B46" si="0">ROW()-2</f>
         <v>4</v>
@@ -1220,7 +1237,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1241,7 +1258,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1262,7 +1279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1283,7 +1300,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1304,7 +1321,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1325,7 +1342,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1346,7 +1363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1354,7 +1371,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1375,7 +1392,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1395,7 +1412,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1415,7 +1432,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1436,7 +1456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1456,7 +1476,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1476,7 +1496,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1484,7 +1504,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1505,7 +1525,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1526,7 +1546,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1547,7 +1567,10 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1568,7 +1591,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1589,7 +1612,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1610,7 +1633,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B27" s="1">
         <v>21</v>
       </c>
@@ -1630,7 +1653,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1638,7 +1661,10 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1659,7 +1685,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1680,7 +1709,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1701,7 +1733,10 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1722,7 +1757,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1743,7 +1781,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1764,7 +1805,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1785,7 +1829,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1806,7 +1853,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1827,7 +1877,10 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1848,7 +1901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1856,7 +1909,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1875,7 +1928,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1894,7 +1947,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1913,7 +1966,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1932,7 +1985,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1951,7 +2004,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1970,7 +2023,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1989,7 +2042,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1997,7 +2050,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2006,7 +2059,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2015,7 +2068,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2024,7 +2077,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2033,7 +2086,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2042,7 +2095,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2051,7 +2104,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2060,7 +2113,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2069,7 +2122,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2089,12 +2142,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2269,15 +2319,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2302,18 +2364,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881FA26A-CAC0-4230-A205-F7FD349712C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E4EFC-82FF-4A73-BE86-2BB9B7033D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2136" yWindow="1356" windowWidth="17280" windowHeight="10644" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="996" yWindow="1008" windowWidth="17280" windowHeight="10644" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="115">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1114,8 +1114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1175,6 +1175,9 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
       <c r="B4" s="1">
         <f>ROW()-2</f>
         <v>2</v>
@@ -1196,6 +1199,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
       <c r="B5" s="1">
         <f>ROW()-2</f>
         <v>3</v>
@@ -1393,6 +1399,9 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>113</v>
+      </c>
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -1526,6 +1535,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>113</v>
+      </c>
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1547,6 +1559,9 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1592,6 +1607,9 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1613,6 +1631,9 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1634,6 +1655,9 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
       <c r="B27" s="1">
         <v>21</v>
       </c>
@@ -2142,9 +2166,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2319,27 +2346,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2364,9 +2379,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E04E4EFC-82FF-4A73-BE86-2BB9B7033D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECC037F-91E3-4F65-B094-795D95D7B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="996" yWindow="1008" windowWidth="17280" windowHeight="10644" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (変更)Servlet追加変更" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="121">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -696,6 +697,30 @@
     <rPh sb="0" eb="2">
       <t>チャクシュ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>testsubjectservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>resultsubjectservlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(追加)4.1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(追加)4.2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト受験リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト一覧リンク</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -729,7 +754,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -739,6 +764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -795,6 +826,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1114,20 +1148,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.8984375" customWidth="1"/>
-    <col min="7" max="7" width="16.09765625" customWidth="1"/>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>114</v>
       </c>
@@ -1150,7 +1184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -1174,7 +1208,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>113</v>
       </c>
@@ -1198,7 +1232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>113</v>
       </c>
@@ -1222,7 +1256,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
         <f t="shared" ref="B6:B46" si="0">ROW()-2</f>
         <v>4</v>
@@ -1243,7 +1277,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1264,7 +1298,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1285,7 +1319,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1306,7 +1340,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1327,7 +1361,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1348,7 +1382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1369,7 +1403,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1377,7 +1411,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1398,7 +1432,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>113</v>
       </c>
@@ -1421,7 +1455,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
         <v>14</v>
       </c>
@@ -1441,7 +1475,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>113</v>
       </c>
@@ -1465,7 +1499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <v>16</v>
       </c>
@@ -1485,7 +1519,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <v>17</v>
       </c>
@@ -1505,7 +1539,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1513,7 +1547,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1534,7 +1568,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>113</v>
       </c>
@@ -1558,7 +1592,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>113</v>
       </c>
@@ -1582,7 +1616,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -1606,7 +1640,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>113</v>
       </c>
@@ -1630,7 +1664,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>113</v>
       </c>
@@ -1654,7 +1688,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>113</v>
       </c>
@@ -1677,7 +1711,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1685,7 +1719,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>113</v>
       </c>
@@ -1709,7 +1743,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>113</v>
       </c>
@@ -1733,7 +1767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>113</v>
       </c>
@@ -1757,7 +1791,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>113</v>
       </c>
@@ -1781,7 +1815,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>113</v>
       </c>
@@ -1805,7 +1839,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>113</v>
       </c>
@@ -1829,7 +1863,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -1853,7 +1887,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -1877,7 +1911,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>113</v>
       </c>
@@ -1901,7 +1935,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>113</v>
       </c>
@@ -1925,7 +1959,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1933,7 +1967,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1952,7 +1986,7 @@
       </c>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1971,7 +2005,7 @@
       </c>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1990,7 +2024,7 @@
       </c>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2009,7 +2043,7 @@
       </c>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2028,7 +2062,7 @@
       </c>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2047,7 +2081,7 @@
       </c>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2066,7 +2100,7 @@
       </c>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -2074,7 +2108,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -2083,7 +2117,7 @@
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2092,7 +2126,7 @@
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2101,7 +2135,7 @@
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -2110,7 +2144,7 @@
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -2119,7 +2153,7 @@
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -2128,7 +2162,7 @@
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
@@ -2137,7 +2171,7 @@
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
@@ -2146,7 +2180,7 @@
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2165,13 +2199,1101 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686108B8-68EB-42E4-98F1-A4BB91C353AC}">
+  <dimension ref="A2:H65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="1">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B6" s="7">
+        <f t="shared" ref="B6:B48" si="0">ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E33" r:id="rId1" xr:uid="{49FE6248-811C-4D72-96EB-752DF3153450}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2346,15 +3468,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2379,18 +3513,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECC037F-91E3-4F65-B094-795D95D7B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB40C9C5-7012-45FF-830A-31FB7BC2CC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -700,14 +700,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>testsubjectservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>resultsubjectservlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>(追加)4.1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -721,6 +713,14 @@
   </si>
   <si>
     <t>テスト一覧リンク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestSubjectServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ResultSubjectServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2203,8 +2203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686108B8-68EB-42E4-98F1-A4BB91C353AC}">
   <dimension ref="A2:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2334,7 +2334,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>2</v>
@@ -2343,16 +2343,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2361,10 +2361,10 @@
         <v>5</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G8" s="7"/>
     </row>

--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB40C9C5-7012-45FF-830A-31FB7BC2CC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B0FB09-C68D-4CD0-93E7-2A2632756CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="810" yWindow="15" windowWidth="17940" windowHeight="10545" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="123">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -721,6 +721,17 @@
   </si>
   <si>
     <t>ResultSubjectServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>result_list_subject.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト科目結果一覧画面</t>
+    <rPh sb="3" eb="11">
+      <t>カモクケッカイチランガメン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2201,10 +2212,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686108B8-68EB-42E4-98F1-A4BB91C353AC}">
-  <dimension ref="A2:H65"/>
+  <dimension ref="A2:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2313,7 +2324,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="7">
-        <f t="shared" ref="B6:B48" si="0">ROW()-2</f>
+        <f t="shared" ref="B6:B49" si="0">ROW()-2</f>
         <v>4</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -2907,11 +2918,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>113</v>
-      </c>
       <c r="B35" s="1">
-        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2921,14 +2928,12 @@
         <v>12</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>111</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
@@ -2945,13 +2950,13 @@
         <v>12</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2969,13 +2974,13 @@
         <v>12</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2993,13 +2998,13 @@
         <v>12</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -3017,13 +3022,13 @@
         <v>12</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -3041,40 +3046,45 @@
         <v>12</v>
       </c>
       <c r="E40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1"/>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -3089,10 +3099,10 @@
         <v>17</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G43" s="1"/>
     </row>
@@ -3107,11 +3117,11 @@
       <c r="D44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>38</v>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G44" s="1"/>
     </row>
@@ -3127,10 +3137,10 @@
         <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45" s="1"/>
     </row>
@@ -3146,10 +3156,10 @@
         <v>17</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G46" s="1"/>
     </row>
@@ -3165,10 +3175,10 @@
         <v>17</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G47" s="1"/>
     </row>
@@ -3184,29 +3194,39 @@
         <v>17</v>
       </c>
       <c r="E48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B58" s="5"/>
@@ -3221,8 +3241,8 @@
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
     </row>
@@ -3248,8 +3268,8 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
     </row>
@@ -3279,6 +3299,15 @@
       <c r="F65" s="5"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B0FB09-C68D-4CD0-93E7-2A2632756CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89564CD1-CA7D-4008-AC21-EAF26EA1BBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="15" windowWidth="17940" windowHeight="10545" activeTab="1" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (変更)Servlet追加変更" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (変更)Servlet追加変更" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3 (追加)js追加" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="128">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -732,6 +733,35 @@
     <rPh sb="3" eb="11">
       <t>カモクケッカイチランガメン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>subject.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ajaxを使用しsubject要素を取得</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>?</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2214,8 +2244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{686108B8-68EB-42E4-98F1-A4BB91C353AC}">
   <dimension ref="A2:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3319,10 +3349,1164 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F024B81D-1DEB-4893-843D-1967A7E137DD}">
+  <dimension ref="A2:H67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.875" customWidth="1"/>
+    <col min="7" max="7" width="16.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="1">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="1">
+        <f>ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="1">
+        <f>ROW()-2</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="7">
+        <f t="shared" ref="B6:B49" si="0">ROW()-2</f>
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" s="1">
+        <v>13</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B18" s="1">
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B20" s="1">
+        <v>16</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="1">
+        <v>17</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>113</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="1">
+        <v>21</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G44" s="1"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G47" s="1"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <v>48</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G51" s="1"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="5"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="E33" r:id="rId1" xr:uid="{9389E0A0-9787-4F2E-BAE9-4BB58A4A1CE2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3497,27 +4681,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3542,9 +4714,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/documents/ファイル構成一覧表.xlsx
+++ b/documents/ファイル構成一覧表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A-3\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89564CD1-CA7D-4008-AC21-EAF26EA1BBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AFA604-13EB-4327-AEBF-DFAB3AC39D38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="129">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -762,6 +762,10 @@
   </si>
   <si>
     <t>?</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3353,8 +3357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F024B81D-1DEB-4893-843D-1967A7E137DD}">
   <dimension ref="A2:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38:G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3594,6 +3598,9 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3615,6 +3622,9 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>128</v>
+      </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -4501,15 +4511,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -4680,6 +4681,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -4687,14 +4697,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4709,6 +4711,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
